--- a/public/resourceFiles/inversores_xlsx.xlsx
+++ b/public/resourceFiles/inversores_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\http-nodejs\public\resourceFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05F988A6-40A4-4CC5-B58C-16054975662E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75490AAD-9F10-436B-9292-AD1D8F954CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="6225" yWindow="2865" windowWidth="15660" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inversores" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="162">
   <si>
     <t>FORNECEDOR</t>
   </si>
@@ -85,9 +85,6 @@
     <t>166,4 - 279,4</t>
   </si>
   <si>
-    <t>1S</t>
-  </si>
-  <si>
     <t>InversorPHB1,5Bifasico1S</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>125-550</t>
   </si>
   <si>
-    <t>2S</t>
-  </si>
-  <si>
     <t>InversorPHB3Bifasico1S</t>
   </si>
   <si>
@@ -151,9 +145,6 @@
     <t>80-550</t>
   </si>
   <si>
-    <t>3S</t>
-  </si>
-  <si>
     <t>InversorPHB12Trifasico2S</t>
   </si>
   <si>
@@ -388,9 +379,6 @@
     <t>110-220</t>
   </si>
   <si>
-    <t>4S</t>
-  </si>
-  <si>
     <t>InversorGrowatt20Trifasico4S</t>
   </si>
   <si>
@@ -413,9 +401,6 @@
   </si>
   <si>
     <t>220/380</t>
-  </si>
-  <si>
-    <t>7S</t>
   </si>
   <si>
     <t>CANADIAN</t>
@@ -526,7 +511,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1361,10 +1346,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1452,8 +1439,8 @@
       <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
-        <v>21</v>
+      <c r="N2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1461,19 +1448,19 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>1.5</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -1496,8 +1483,8 @@
       <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" t="s">
-        <v>21</v>
+      <c r="N3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1505,19 +1492,19 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
       <c r="E4">
         <v>1.8</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -1532,16 +1519,16 @@
         <v>0.97399999999999998</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4">
         <v>14.3</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1549,19 +1536,19 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
       </c>
       <c r="E5">
         <v>2.9</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <v>120</v>
@@ -1576,16 +1563,16 @@
         <v>0.96009999999999995</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5">
         <v>23.8</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1593,19 +1580,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>80</v>
@@ -1628,8 +1615,8 @@
       <c r="M6" t="s">
         <v>20</v>
       </c>
-      <c r="N6" t="s">
-        <v>21</v>
+      <c r="N6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1637,19 +1624,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>120</v>
@@ -1672,8 +1659,8 @@
       <c r="M7" t="s">
         <v>20</v>
       </c>
-      <c r="N7" t="s">
-        <v>32</v>
+      <c r="N7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1681,19 +1668,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>120</v>
@@ -1716,8 +1703,8 @@
       <c r="M8" t="s">
         <v>20</v>
       </c>
-      <c r="N8" t="s">
-        <v>32</v>
+      <c r="N8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1725,19 +1712,19 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>8.5</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>80</v>
@@ -1760,8 +1747,8 @@
       <c r="M9" t="s">
         <v>20</v>
       </c>
-      <c r="N9" t="s">
-        <v>43</v>
+      <c r="N9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1769,19 +1756,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>180</v>
@@ -1796,36 +1783,36 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L10">
         <v>31.9</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>80</v>
@@ -1846,30 +1833,30 @@
         <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G12">
         <v>80</v>
@@ -1889,28 +1876,28 @@
       <c r="L12">
         <v>17.399999999999999</v>
       </c>
-      <c r="N12" t="s">
-        <v>32</v>
+      <c r="N12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <v>4.5999999999999996</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G13">
         <v>80</v>
@@ -1930,28 +1917,28 @@
       <c r="L13">
         <v>20</v>
       </c>
-      <c r="N13" t="s">
-        <v>32</v>
+      <c r="N13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G14">
         <v>80</v>
@@ -1971,28 +1958,28 @@
       <c r="L14">
         <v>21.7</v>
       </c>
-      <c r="N14" t="s">
-        <v>32</v>
+      <c r="N14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G15">
         <v>80</v>
@@ -2012,28 +1999,28 @@
       <c r="L15">
         <v>26.1</v>
       </c>
-      <c r="N15" t="s">
-        <v>32</v>
+      <c r="N15">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E16">
         <v>8.1999999999999993</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>80</v>
@@ -2053,28 +2040,28 @@
       <c r="L16">
         <v>35.700000000000003</v>
       </c>
-      <c r="N16" t="s">
-        <v>32</v>
+      <c r="N16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G17">
         <v>120</v>
@@ -2094,28 +2081,28 @@
       <c r="L17">
         <v>10</v>
       </c>
-      <c r="N17" t="s">
-        <v>32</v>
+      <c r="N17">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G18">
         <v>120</v>
@@ -2135,28 +2122,28 @@
       <c r="L18">
         <v>15</v>
       </c>
-      <c r="N18" t="s">
-        <v>32</v>
+      <c r="N18">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G19">
         <v>120</v>
@@ -2176,28 +2163,28 @@
       <c r="L19">
         <v>20</v>
       </c>
-      <c r="N19" t="s">
-        <v>32</v>
+      <c r="N19">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>120</v>
@@ -2217,28 +2204,28 @@
       <c r="L20">
         <v>25</v>
       </c>
-      <c r="N20" t="s">
-        <v>32</v>
+      <c r="N20">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G21">
         <v>50</v>
@@ -2258,28 +2245,28 @@
       <c r="L21">
         <v>4.8</v>
       </c>
-      <c r="N21" t="s">
-        <v>21</v>
+      <c r="N21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E22">
         <v>1.5</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>50</v>
@@ -2299,28 +2286,28 @@
       <c r="L22">
         <v>7.1</v>
       </c>
-      <c r="N22" t="s">
-        <v>21</v>
+      <c r="N22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G23">
         <v>50</v>
@@ -2340,28 +2327,28 @@
       <c r="L23">
         <v>9.5</v>
       </c>
-      <c r="N23" t="s">
-        <v>21</v>
+      <c r="N23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E24">
         <v>2.5</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G24">
         <v>80</v>
@@ -2376,36 +2363,36 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="K24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L24">
         <v>11.9</v>
       </c>
       <c r="M24" t="s">
-        <v>91</v>
-      </c>
-      <c r="N24" t="s">
-        <v>21</v>
+        <v>88</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G25">
         <v>80</v>
@@ -2420,36 +2407,36 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="K25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L25">
         <v>14.3</v>
       </c>
       <c r="M25" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" t="s">
-        <v>21</v>
+        <v>88</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E26">
         <v>2.5</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G26">
         <v>100</v>
@@ -2464,36 +2451,36 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="K26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L26">
         <v>11.3</v>
       </c>
       <c r="M26" t="s">
-        <v>91</v>
-      </c>
-      <c r="N26" t="s">
-        <v>32</v>
+        <v>88</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G27">
         <v>100</v>
@@ -2508,36 +2495,36 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="K27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L27">
         <v>13.6</v>
       </c>
       <c r="M27" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" t="s">
-        <v>32</v>
+        <v>88</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E28">
         <v>3.6</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G28">
         <v>100</v>
@@ -2552,36 +2539,36 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="K28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L28">
         <v>16</v>
       </c>
       <c r="M28" t="s">
-        <v>91</v>
-      </c>
-      <c r="N28" t="s">
-        <v>32</v>
+        <v>88</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E29">
         <v>4.2</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G29">
         <v>100</v>
@@ -2596,36 +2583,36 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="K29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L29">
         <v>19</v>
       </c>
       <c r="M29" t="s">
-        <v>91</v>
-      </c>
-      <c r="N29" t="s">
-        <v>32</v>
+        <v>88</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E30">
         <v>4.5999999999999996</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G30">
         <v>100</v>
@@ -2640,36 +2627,36 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="K30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L30">
         <v>20.9</v>
       </c>
       <c r="M30" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" t="s">
-        <v>32</v>
+        <v>88</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E31">
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G31">
         <v>100</v>
@@ -2684,36 +2671,36 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="K31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L31">
         <v>22.7</v>
       </c>
       <c r="M31" t="s">
-        <v>91</v>
-      </c>
-      <c r="N31" t="s">
-        <v>32</v>
+        <v>88</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E32">
         <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G32">
         <v>100</v>
@@ -2728,36 +2715,36 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="K32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L32">
         <v>27.2</v>
       </c>
       <c r="M32" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" t="s">
-        <v>32</v>
+        <v>88</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E33">
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G33">
         <v>100</v>
@@ -2772,36 +2759,36 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="K33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L33">
         <v>33.5</v>
       </c>
       <c r="M33" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" t="s">
-        <v>32</v>
+        <v>88</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E34">
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G34">
         <v>100</v>
@@ -2816,36 +2803,36 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="K34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L34">
         <v>38.299999999999997</v>
       </c>
       <c r="M34" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" t="s">
-        <v>32</v>
+        <v>88</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E35">
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G35">
         <v>100</v>
@@ -2860,36 +2847,36 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="K35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L35">
         <v>43</v>
       </c>
       <c r="M35" t="s">
-        <v>91</v>
-      </c>
-      <c r="N35" t="s">
-        <v>43</v>
+        <v>88</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E36">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G36">
         <v>100</v>
@@ -2904,36 +2891,36 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="K36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L36">
         <v>45.5</v>
       </c>
       <c r="M36" t="s">
-        <v>91</v>
-      </c>
-      <c r="N36" t="s">
-        <v>43</v>
+        <v>88</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E37">
         <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G37">
         <v>250</v>
@@ -2948,36 +2935,36 @@
         <v>0.98</v>
       </c>
       <c r="K37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L37">
         <v>43.7</v>
       </c>
       <c r="M37" t="s">
-        <v>121</v>
-      </c>
-      <c r="N37" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E38">
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G38">
         <v>250</v>
@@ -2992,36 +2979,36 @@
         <v>0.98</v>
       </c>
       <c r="K38" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L38">
         <v>58.3</v>
       </c>
       <c r="M38" t="s">
-        <v>121</v>
-      </c>
-      <c r="N38" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E39">
         <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G39">
         <v>250</v>
@@ -3036,36 +3023,36 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="K39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L39">
         <v>94.5</v>
       </c>
       <c r="M39" t="s">
-        <v>121</v>
-      </c>
-      <c r="N39" t="s">
-        <v>43</v>
+        <v>118</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E40">
         <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G40">
         <v>250</v>
@@ -3080,36 +3067,36 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="K40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L40">
         <v>120.8</v>
       </c>
       <c r="M40" t="s">
-        <v>130</v>
-      </c>
-      <c r="N40" t="s">
-        <v>131</v>
+        <v>126</v>
+      </c>
+      <c r="N40">
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E41">
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G41">
         <v>90</v>
@@ -3129,28 +3116,28 @@
       <c r="L41">
         <v>15.7</v>
       </c>
-      <c r="N41" t="s">
-        <v>21</v>
+      <c r="N41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
         <v>132</v>
-      </c>
-      <c r="B42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>137</v>
       </c>
       <c r="E42">
         <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G42">
         <v>120</v>
@@ -3170,28 +3157,28 @@
       <c r="L42">
         <v>21</v>
       </c>
-      <c r="N42" t="s">
-        <v>32</v>
+      <c r="N42">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E43">
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G43">
         <v>120</v>
@@ -3211,28 +3198,28 @@
       <c r="L43">
         <v>25</v>
       </c>
-      <c r="N43" t="s">
-        <v>32</v>
+      <c r="N43">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E44">
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G44">
         <v>120</v>
@@ -3252,28 +3239,28 @@
       <c r="L44">
         <v>33.700000000000003</v>
       </c>
-      <c r="N44" t="s">
-        <v>43</v>
+      <c r="N44">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E45">
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G45">
         <v>120</v>
@@ -3293,28 +3280,28 @@
       <c r="L45">
         <v>36.6</v>
       </c>
-      <c r="N45" t="s">
-        <v>43</v>
+      <c r="N45">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E46">
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G46">
         <v>120</v>
@@ -3334,28 +3321,28 @@
       <c r="L46">
         <v>41.3</v>
       </c>
-      <c r="N46" t="s">
-        <v>43</v>
+      <c r="N46">
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E47">
         <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G47">
         <v>180</v>
@@ -3370,33 +3357,33 @@
         <v>0.98699999999999999</v>
       </c>
       <c r="K47" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L47">
         <v>23.8</v>
       </c>
-      <c r="N47" t="s">
-        <v>32</v>
+      <c r="N47">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B48" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E48">
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G48">
         <v>180</v>
@@ -3411,33 +3398,33 @@
         <v>0.98699999999999999</v>
       </c>
       <c r="K48" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L48">
         <v>31.8</v>
       </c>
-      <c r="N48" t="s">
-        <v>32</v>
+      <c r="N48">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E49">
         <v>1.5</v>
       </c>
       <c r="F49" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G49">
         <v>20</v>
@@ -3457,28 +3444,28 @@
       <c r="L49">
         <v>6.81</v>
       </c>
-      <c r="N49" t="s">
-        <v>122</v>
+      <c r="N49">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" t="s">
         <v>156</v>
-      </c>
-      <c r="D50" t="s">
-        <v>161</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G50">
         <v>20</v>
@@ -3493,7 +3480,7 @@
         <v>0.96499999999999997</v>
       </c>
       <c r="K50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L50">
         <v>9.1</v>
@@ -3501,28 +3488,28 @@
       <c r="M50">
         <v>220</v>
       </c>
-      <c r="N50" t="s">
-        <v>122</v>
+      <c r="N50">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E51">
         <v>1.8</v>
       </c>
       <c r="F51" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G51">
         <v>22</v>
@@ -3545,8 +3532,8 @@
       <c r="M51">
         <v>220</v>
       </c>
-      <c r="N51" t="s">
-        <v>122</v>
+      <c r="N51">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
